--- a/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
@@ -561,34 +561,34 @@
         <v>2578.654471544715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.957367370475656</v>
+        <v>0.9573673704756551</v>
       </c>
       <c r="E2" t="n">
         <v>2.889159891598926</v>
       </c>
       <c r="F2" t="n">
-        <v>123.806119651476</v>
+        <v>123.8061196515057</v>
       </c>
       <c r="G2" t="n">
-        <v>3.271764867776877</v>
+        <v>3.271763537134271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07834179959201183</v>
+        <v>0.07834209837364062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2908163652551038</v>
+        <v>0.29081648755151</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1628884194525556</v>
+        <v>-0.1628884194522898</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3176371481867131</v>
+        <v>0.317637148302716</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8223328206898234</v>
+        <v>0.8223328207224148</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.01462073517639469</v>
+        <v>-0.01462073588281486</v>
       </c>
       <c r="N2" t="n">
         <v>52.0840108401084</v>
@@ -603,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01092787219808402</v>
+        <v>-0.01092787218934986</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4833106207561414</v>
+        <v>0.483310620890642</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8993535613337493</v>
+        <v>0.8993535614357008</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.271764867776877</v>
+        <v>-3.271763537134271</v>
       </c>
       <c r="V2" t="n">
-        <v>123.806119651476</v>
+        <v>123.8061196515057</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4928006583621857</v>
+        <v>0.4928006376371843</v>
       </c>
       <c r="X2" t="n">
         <v>738</v>
@@ -635,34 +635,34 @@
         <v>2562.980419580419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9589203550412042</v>
+        <v>0.9589203550412037</v>
       </c>
       <c r="E3" t="n">
         <v>2.746153846153856</v>
       </c>
       <c r="F3" t="n">
-        <v>231.2952768200327</v>
+        <v>231.2952768200359</v>
       </c>
       <c r="G3" t="n">
-        <v>3.053338105970633</v>
+        <v>3.053336875738492</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02393790926572181</v>
+        <v>0.02393829744734212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958267447188552</v>
+        <v>0.2958267537091377</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01091278909918532</v>
+        <v>0.0109127891000297</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02192935273311539</v>
+        <v>0.0219293527237415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6313927113898704</v>
+        <v>0.6313927113910589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03881450694575741</v>
+        <v>0.03881450674676788</v>
       </c>
       <c r="N3" t="n">
         <v>50.90559440559441</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1627055521531115</v>
+        <v>0.162705552156327</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1859912431648591</v>
+        <v>0.1859912431708744</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7347595648360785</v>
+        <v>0.7347595648871136</v>
       </c>
       <c r="U3" t="n">
-        <v>-3.053338105970633</v>
+        <v>-3.053336875738492</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2952768200327</v>
+        <v>231.2952768200359</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5102133699958602</v>
+        <v>0.5102132900320928</v>
       </c>
       <c r="X3" t="n">
         <v>1430</v>
@@ -709,34 +709,34 @@
         <v>2539.96642272923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9568836420619367</v>
+        <v>0.9568836420619361</v>
       </c>
       <c r="E4" t="n">
         <v>2.324020662935869</v>
       </c>
       <c r="F4" t="n">
-        <v>350.8937606119275</v>
+        <v>350.8937606119479</v>
       </c>
       <c r="G4" t="n">
-        <v>2.649918186859723</v>
+        <v>2.649916984150955</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0655163151733095</v>
+        <v>0.06551664723296059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3128688559594655</v>
+        <v>0.3128687761838435</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005021352277175509</v>
+        <v>-0.005021352283645458</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04690548060142555</v>
+        <v>-0.0469054806371959</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6194306409424568</v>
+        <v>0.6194306409250072</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.005844152284512809</v>
+        <v>-0.005844152053159766</v>
       </c>
       <c r="N4" t="n">
         <v>50.55660783469651</v>
@@ -751,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1409913067028207</v>
+        <v>0.1409913066984244</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1149750938453196</v>
+        <v>0.1149750938222715</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7127620947341012</v>
+        <v>0.7127620947153475</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.649918186859723</v>
+        <v>-2.649916984150955</v>
       </c>
       <c r="V4" t="n">
-        <v>350.8937606119275</v>
+        <v>350.8937606119479</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5311768347688534</v>
+        <v>0.5311767722574736</v>
       </c>
       <c r="X4" t="n">
         <v>2323</v>
@@ -783,34 +783,34 @@
         <v>2535.73409461664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9483441934440331</v>
+        <v>0.9483441934440319</v>
       </c>
       <c r="E5" t="n">
         <v>2.120228384991854</v>
       </c>
       <c r="F5" t="n">
-        <v>438.9740508485447</v>
+        <v>438.9740508485843</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46372109128112</v>
+        <v>2.463720474733043</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1113645484531054</v>
+        <v>0.11136542325217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3115268692582097</v>
+        <v>0.3115268575478008</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1896753123712681</v>
+        <v>0.1896753123934823</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.255813635127136</v>
+        <v>-0.2558136351093521</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6034641436128246</v>
+        <v>0.6034641435833887</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0507971886057566</v>
+        <v>-0.05079718816780353</v>
       </c>
       <c r="N5" t="n">
         <v>26.45350734094617</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3348797418887345</v>
+        <v>0.3348797419192323</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09307444427907863</v>
+        <v>-0.09307444423028166</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7011038396844713</v>
+        <v>0.7011038396049365</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.46372109128112</v>
+        <v>-2.463720474733043</v>
       </c>
       <c r="V5" t="n">
-        <v>438.9740508485447</v>
+        <v>438.9740508485843</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5106962023873153</v>
+        <v>0.5106964902640716</v>
       </c>
       <c r="X5" t="n">
         <v>613</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
@@ -561,34 +561,34 @@
         <v>2578.654471544715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9573673704756551</v>
+        <v>0.9573673704756542</v>
       </c>
       <c r="E2" t="n">
         <v>2.889159891598926</v>
       </c>
       <c r="F2" t="n">
-        <v>123.8061196515057</v>
+        <v>123.8061196514544</v>
       </c>
       <c r="G2" t="n">
-        <v>3.271763537134271</v>
+        <v>3.271764918125837</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07834209837364062</v>
+        <v>0.07834178422519646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29081648755151</v>
+        <v>0.2908162930435567</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1628884194522898</v>
+        <v>-0.1628884194441978</v>
       </c>
       <c r="K2" t="n">
-        <v>0.317637148302716</v>
+        <v>0.3176371482731191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8223328207224148</v>
+        <v>0.8223328206936749</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.01462073588281486</v>
+        <v>-0.01462073509600114</v>
       </c>
       <c r="N2" t="n">
         <v>52.0840108401084</v>
@@ -603,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01092787218934986</v>
+        <v>-0.01092787219120428</v>
       </c>
       <c r="S2" t="n">
-        <v>0.483310620890642</v>
+        <v>0.4833106208324244</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8993535614357008</v>
+        <v>0.8993535613745192</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.271763537134271</v>
+        <v>-3.271764918125837</v>
       </c>
       <c r="V2" t="n">
-        <v>123.8061196515057</v>
+        <v>123.8061196514544</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4928006376371843</v>
+        <v>0.4928005915910521</v>
       </c>
       <c r="X2" t="n">
         <v>738</v>
@@ -635,34 +635,34 @@
         <v>2562.980419580419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9589203550412037</v>
+        <v>0.9589203550412033</v>
       </c>
       <c r="E3" t="n">
         <v>2.746153846153856</v>
       </c>
       <c r="F3" t="n">
-        <v>231.2952768200359</v>
+        <v>231.2952768200087</v>
       </c>
       <c r="G3" t="n">
-        <v>3.053336875738492</v>
+        <v>3.053338157836824</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02393829744734212</v>
+        <v>0.02393789129769694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958267537091377</v>
+        <v>0.295826799057578</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0109127891000297</v>
+        <v>0.01091278909164951</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0219293527237415</v>
+        <v>0.02192935269538253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6313927113910589</v>
+        <v>0.6313927113513602</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03881450674676788</v>
+        <v>0.03881450696797434</v>
       </c>
       <c r="N3" t="n">
         <v>50.90559440559441</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.162705552156327</v>
+        <v>0.1627055521395839</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1859912431708744</v>
+        <v>0.1859912431136909</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7347595648871136</v>
+        <v>0.7347595648784991</v>
       </c>
       <c r="U3" t="n">
-        <v>-3.053336875738492</v>
+        <v>-3.053338157836824</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2952768200359</v>
+        <v>231.2952768200087</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5102132900320928</v>
+        <v>0.5102134276356067</v>
       </c>
       <c r="X3" t="n">
         <v>1430</v>
@@ -709,34 +709,34 @@
         <v>2539.96642272923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9568836420619361</v>
+        <v>0.9568836420619359</v>
       </c>
       <c r="E4" t="n">
         <v>2.324020662935869</v>
       </c>
       <c r="F4" t="n">
-        <v>350.8937606119479</v>
+        <v>350.8937606119273</v>
       </c>
       <c r="G4" t="n">
-        <v>2.649916984150955</v>
+        <v>2.649918228525607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06551664723296059</v>
+        <v>0.06551629626305824</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3128687761838435</v>
+        <v>0.3128687723878129</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005021352283645458</v>
+        <v>-0.005021352280572937</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0469054806371959</v>
+        <v>-0.0469054806138074</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6194306409250072</v>
+        <v>0.6194306409290407</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.005844152053159766</v>
+        <v>-0.005844152306987741</v>
       </c>
       <c r="N4" t="n">
         <v>50.55660783469651</v>
@@ -751,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1409913066984244</v>
+        <v>0.140991306693051</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1149750938222715</v>
+        <v>0.1149750938184799</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7127620947153475</v>
+        <v>0.7127620947296368</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.649916984150955</v>
+        <v>-2.649918228525607</v>
       </c>
       <c r="V4" t="n">
-        <v>350.8937606119479</v>
+        <v>350.8937606119273</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5311767722574736</v>
+        <v>0.531176769053657</v>
       </c>
       <c r="X4" t="n">
         <v>2323</v>
@@ -789,28 +789,28 @@
         <v>2.120228384991854</v>
       </c>
       <c r="F5" t="n">
-        <v>438.9740508485843</v>
+        <v>438.9740508486213</v>
       </c>
       <c r="G5" t="n">
-        <v>2.463720474733043</v>
+        <v>2.46372111349551</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11136542325217</v>
+        <v>0.1113645130773727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3115268575478008</v>
+        <v>0.3115271392151547</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1896753123934823</v>
+        <v>0.1896753123913385</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2558136351093521</v>
+        <v>-0.2558136350962145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6034641435833887</v>
+        <v>0.603464143539619</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.05079718816780353</v>
+        <v>-0.05079718866920521</v>
       </c>
       <c r="N5" t="n">
         <v>26.45350734094617</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3348797419192323</v>
+        <v>0.3348797419078213</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09307444423028166</v>
+        <v>-0.09307444424773367</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7011038396049365</v>
+        <v>0.7011038396043917</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.463720474733043</v>
+        <v>-2.46372111349551</v>
       </c>
       <c r="V5" t="n">
-        <v>438.9740508485843</v>
+        <v>438.9740508486213</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5106964902640716</v>
+        <v>0.5106963380207041</v>
       </c>
       <c r="X5" t="n">
         <v>613</v>

--- a/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/idpt_bin-r_rmse-z.xlsx
@@ -561,34 +561,34 @@
         <v>2578.654471544715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9573673704756542</v>
+        <v>0.957367370475656</v>
       </c>
       <c r="E2" t="n">
         <v>2.889159891598926</v>
       </c>
       <c r="F2" t="n">
-        <v>123.8061196514544</v>
+        <v>123.8061196514915</v>
       </c>
       <c r="G2" t="n">
-        <v>3.271764918125837</v>
+        <v>3.271764456288075</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07834178422519646</v>
+        <v>0.07834189188709659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2908162930435567</v>
+        <v>0.2908162910204881</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1628884194441978</v>
+        <v>-0.1628884194554577</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3176371482731191</v>
+        <v>0.3176371482429239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8223328206936749</v>
+        <v>0.8223328207210502</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.01462073509600114</v>
+        <v>-0.01462073528593916</v>
       </c>
       <c r="N2" t="n">
         <v>52.0840108401084</v>
@@ -603,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01092787219120428</v>
+        <v>-0.01092787221953125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4833106208324244</v>
+        <v>0.4833106208045689</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8993535613745192</v>
+        <v>0.8993535614070355</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.271764918125837</v>
+        <v>-3.271764456288075</v>
       </c>
       <c r="V2" t="n">
-        <v>123.8061196514544</v>
+        <v>123.8061196514915</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4928005915910521</v>
+        <v>0.4928005756722613</v>
       </c>
       <c r="X2" t="n">
         <v>738</v>
@@ -635,34 +635,34 @@
         <v>2562.980419580419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9589203550412033</v>
+        <v>0.9589203550412042</v>
       </c>
       <c r="E3" t="n">
         <v>2.746153846153856</v>
       </c>
       <c r="F3" t="n">
-        <v>231.2952768200087</v>
+        <v>231.2952768199837</v>
       </c>
       <c r="G3" t="n">
-        <v>3.053338157836824</v>
+        <v>3.053337730393002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02393789129769694</v>
+        <v>0.02393803163777012</v>
       </c>
       <c r="I3" t="n">
-        <v>0.295826799057578</v>
+        <v>0.2958266933971802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01091278909164951</v>
+        <v>0.01091278907805592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02192935269538253</v>
+        <v>0.02192935267965688</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6313927113513602</v>
+        <v>0.6313927113689596</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03881450696797434</v>
+        <v>0.03881450695209773</v>
       </c>
       <c r="N3" t="n">
         <v>50.90559440559441</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1627055521395839</v>
+        <v>0.1627055521047725</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1859912431136909</v>
+        <v>0.1859912430978822</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7347595648784991</v>
+        <v>0.7347595648436005</v>
       </c>
       <c r="U3" t="n">
-        <v>-3.053338157836824</v>
+        <v>-3.053337730393002</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2952768200087</v>
+        <v>231.2952768199837</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5102134276356067</v>
+        <v>0.510213370980946</v>
       </c>
       <c r="X3" t="n">
         <v>1430</v>
@@ -709,34 +709,34 @@
         <v>2539.96642272923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9568836420619359</v>
+        <v>0.9568836420619367</v>
       </c>
       <c r="E4" t="n">
         <v>2.324020662935869</v>
       </c>
       <c r="F4" t="n">
-        <v>350.8937606119273</v>
+        <v>350.8937606119199</v>
       </c>
       <c r="G4" t="n">
-        <v>2.649918228525607</v>
+        <v>2.649917822647881</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06551629626305824</v>
+        <v>0.06551641754290859</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3128687723878129</v>
+        <v>0.3128688825567664</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005021352280572937</v>
+        <v>-0.005021352253588654</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0469054806138074</v>
+        <v>-0.046905480593389</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6194306409290407</v>
+        <v>0.6194306409157335</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.005844152306987741</v>
+        <v>-0.005844152278239018</v>
       </c>
       <c r="N4" t="n">
         <v>50.55660783469651</v>
@@ -751,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.140991306693051</v>
+        <v>0.1409913067000756</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1149750938184799</v>
+        <v>0.1149750938396879</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7127620947296368</v>
+        <v>0.7127620947221212</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.649918228525607</v>
+        <v>-2.649917822647881</v>
       </c>
       <c r="V4" t="n">
-        <v>350.8937606119273</v>
+        <v>350.8937606119199</v>
       </c>
       <c r="W4" t="n">
-        <v>0.531176769053657</v>
+        <v>0.5311768302035288</v>
       </c>
       <c r="X4" t="n">
         <v>2323</v>
@@ -783,34 +783,34 @@
         <v>2535.73409461664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9483441934440319</v>
+        <v>0.9483441934440331</v>
       </c>
       <c r="E5" t="n">
         <v>2.120228384991854</v>
       </c>
       <c r="F5" t="n">
-        <v>438.9740508486213</v>
+        <v>438.9740508485398</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46372111349551</v>
+        <v>2.463720904577968</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1113645130773727</v>
+        <v>0.1113648155143923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3115271392151547</v>
+        <v>0.3115269317665304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1896753123913385</v>
+        <v>0.1896753123345112</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2558136350962145</v>
+        <v>-0.2558136351007304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.603464143539619</v>
+        <v>0.6034641435975043</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.05079718866920521</v>
+        <v>-0.05079718851243611</v>
       </c>
       <c r="N5" t="n">
         <v>26.45350734094617</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3348797419078213</v>
+        <v>0.3348797418374257</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09307444424773367</v>
+        <v>-0.09307444423944049</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7011038396043917</v>
+        <v>0.7011038396343712</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.46372111349551</v>
+        <v>-2.463720904577968</v>
       </c>
       <c r="V5" t="n">
-        <v>438.9740508486213</v>
+        <v>438.9740508485398</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5106963380207041</v>
+        <v>0.5106962884172095</v>
       </c>
       <c r="X5" t="n">
         <v>613</v>
